--- a/codetyp/classification_result.xlsx
+++ b/codetyp/classification_result.xlsx
@@ -468,12 +468,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>flink,spark,hive,kafka</t>
+          <t>flink</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>flink:StreamExecutionEnvironment; StreamTableEnvironment; 'connector' =; 'format' =; WATERMARK FOR | spark:.filter(; .map( | hive: | kafka:KafkaProducer; KafkaConsumer; bootstrap.servers</t>
+          <t>flink(254分): StreamExecutionEnvironment(+25); StreamTableEnvironment(+25); 'connector' =(+15); 'format' =(+10); WATERMARK FOR(+20); TUMBLE((+18); HOP((+18); SESSION((+18)</t>
         </is>
       </c>
     </row>
@@ -490,12 +490,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>flink,spark,hive,kafka</t>
+          <t>flink</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>flink:StreamExecutionEnvironment; StreamTableEnvironment; .getExecutionEnvironment(; .addSource(; .addSink( | spark:.filter(; .map( | hive: | kafka:KafkaProducer; KafkaConsumer; bootstrap.servers</t>
+          <t>flink(270分): StreamExecutionEnvironment(+25); StreamTableEnvironment(+25); .getExecutionEnvironment((+20); .addSource((+15); .addSink((+15); .keyBy((+12); .timeWindow((+15); .executeSql((+15)</t>
         </is>
       </c>
     </row>
@@ -512,12 +512,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>flink,spark,hive,presto</t>
+          <t>spark</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>flink:.connect(; flink run | spark:SparkSession; spark = SparkSession; .collect(); spark.sql(; from pyspark | hive:beeline -e; hive -e "; execute_hive_query; run_hive_sql; from pyhive import hive | presto:prestodb</t>
+          <t>spark(140分): SparkSession(+20); spark = SparkSession(+20); spark.sql((+15); from pyspark(+20); pyspark.sql(+15); spark-submit(+20); yarn(+15); findspark.init(+15) | hive(69分): beeline -e(+15); hive -e "(+15); execute_hive_query(+12); run_hive_sql(+12); from pyhive import hive(+15) | flink(20分): flink run(+20) | presto(20分): prestodb(+20)</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>hive:EXTERNAL ; PARTITIONED BY; ORC; LOCATION 'hdfs://; MSCK REPAIR TABLE</t>
+          <t>hive(116分): PARTITIONED BY(+10); ORC(+10); LOCATION 'hdfs://(+8); MSCK REPAIR TABLE(+15); (+10); SET hive.exec(+15); get_json_object((+10); lateral view explode(+12)</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>flink,hive</t>
+          <t>hive</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>flink:.connect( | hive:hive_client.query; beeline -e; hive -e "; execute_hive_query; run_hive_sql</t>
+          <t>hive(84分): beeline -e(+15); hive -e "(+15); execute_hive_query(+12); run_hive_sql(+12); HiveServer2(+15); from pyhive import hive(+15)</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>spark,hive</t>
+          <t>spark</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>spark:SparkSession; spark = SparkSession; .filter(; .withColumn(; spark.sql( | hive:OVERWRITE</t>
+          <t>spark(112分): SparkSession(+20); spark = SparkSession(+20); .withColumn((+10); spark.sql((+15); .createOrReplaceTempView((+12); from pyspark(+20); pyspark.sql(+15)</t>
         </is>
       </c>
     </row>
@@ -600,12 +600,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>flink,spark</t>
+          <t>spark</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>flink:session( | spark:SparkSession; sparkContext; spark = SparkSession; parquet; .select(</t>
+          <t>spark(251分): SparkSession(+20); sparkContext(+20); spark = SparkSession(+20); parquet(+12); .withColumn((+10); .dropDuplicates((+8); .cache((+8); .persist((+8) | flink(18分): session((+18)</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>spark:spark-submit; spark2-submit; spark.executor; yarn</t>
+          <t>spark(67分): spark-submit(+20); spark2-submit(+20); spark.executor(+12); yarn(+15)</t>
         </is>
       </c>
     </row>
